--- a/data/pca/factorExposure/factorExposure_2008-12-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-10.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01869709893679183</v>
+        <v>-0.01727419301159673</v>
       </c>
       <c r="C2">
-        <v>0.01430972621775492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0161833502494024</v>
+      </c>
+      <c r="D2">
+        <v>0.02490835710736915</v>
+      </c>
+      <c r="E2">
+        <v>0.008598005865866632</v>
+      </c>
+      <c r="F2">
+        <v>-0.009374215403720677</v>
+      </c>
+      <c r="G2">
+        <v>-0.03080812886293915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0806998119237414</v>
+        <v>-0.08407811449476466</v>
       </c>
       <c r="C4">
-        <v>0.0863340071985932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08880493447945847</v>
+      </c>
+      <c r="D4">
+        <v>-0.01638945578971607</v>
+      </c>
+      <c r="E4">
+        <v>0.07820046787910412</v>
+      </c>
+      <c r="F4">
+        <v>0.02323869271863176</v>
+      </c>
+      <c r="G4">
+        <v>0.07848815572097957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005146344582218678</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0005638655903603579</v>
+      </c>
+      <c r="D5">
+        <v>-0.001238696855366996</v>
+      </c>
+      <c r="E5">
+        <v>-0.005831400607601688</v>
+      </c>
+      <c r="F5">
+        <v>0.003891834195482088</v>
+      </c>
+      <c r="G5">
+        <v>0.0003158085493292052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1677325882424846</v>
+        <v>-0.1691521028173955</v>
       </c>
       <c r="C6">
-        <v>-0.0158688582663403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.007128984773718303</v>
+      </c>
+      <c r="D6">
+        <v>-0.07487283317882819</v>
+      </c>
+      <c r="E6">
+        <v>-0.01657222092587873</v>
+      </c>
+      <c r="F6">
+        <v>0.06945401983723233</v>
+      </c>
+      <c r="G6">
+        <v>-0.1191394554335546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0503261462979337</v>
+        <v>-0.05267791618804796</v>
       </c>
       <c r="C7">
-        <v>0.06153813502989516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06283857540869822</v>
+      </c>
+      <c r="D7">
+        <v>-0.002947308732753974</v>
+      </c>
+      <c r="E7">
+        <v>0.1180118816797659</v>
+      </c>
+      <c r="F7">
+        <v>-0.01834756552320796</v>
+      </c>
+      <c r="G7">
+        <v>0.03201471963145314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04698780681646812</v>
+        <v>-0.04558676175163194</v>
       </c>
       <c r="C8">
-        <v>0.06127226584870685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05930055336659244</v>
+      </c>
+      <c r="D8">
+        <v>0.04617413419195483</v>
+      </c>
+      <c r="E8">
+        <v>0.004744833339876639</v>
+      </c>
+      <c r="F8">
+        <v>-0.02710693800140273</v>
+      </c>
+      <c r="G8">
+        <v>-0.02095879581148103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05649906062021936</v>
+        <v>-0.06179576218481982</v>
       </c>
       <c r="C9">
-        <v>0.09594410816317633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09589793806070986</v>
+      </c>
+      <c r="D9">
+        <v>-0.01797024372108431</v>
+      </c>
+      <c r="E9">
+        <v>0.0799437773724814</v>
+      </c>
+      <c r="F9">
+        <v>0.02485056956434938</v>
+      </c>
+      <c r="G9">
+        <v>0.08826229390917049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1194922317628147</v>
+        <v>-0.1039973096438995</v>
       </c>
       <c r="C10">
-        <v>-0.1535366085852187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1373217975709103</v>
+      </c>
+      <c r="D10">
+        <v>0.08572425005494358</v>
+      </c>
+      <c r="E10">
+        <v>-0.0130021084101072</v>
+      </c>
+      <c r="F10">
+        <v>-0.04851818483759478</v>
+      </c>
+      <c r="G10">
+        <v>0.03974780765771305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0786860796374559</v>
+        <v>-0.07607835007492379</v>
       </c>
       <c r="C11">
-        <v>0.1385020274996792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1374048491177222</v>
+      </c>
+      <c r="D11">
+        <v>0.01312101549084085</v>
+      </c>
+      <c r="E11">
+        <v>0.06368176936871571</v>
+      </c>
+      <c r="F11">
+        <v>0.0103421669484004</v>
+      </c>
+      <c r="G11">
+        <v>0.1019999787922466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07951128500773143</v>
+        <v>-0.0756864459978846</v>
       </c>
       <c r="C12">
-        <v>0.1665165087697357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1631703179031998</v>
+      </c>
+      <c r="D12">
+        <v>0.009165895595022115</v>
+      </c>
+      <c r="E12">
+        <v>0.08026888324626801</v>
+      </c>
+      <c r="F12">
+        <v>-0.01991198122847593</v>
+      </c>
+      <c r="G12">
+        <v>0.1080411003782157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03971706881386123</v>
+        <v>-0.0421074073977233</v>
       </c>
       <c r="C13">
-        <v>0.07366100803077477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07746232657565301</v>
+      </c>
+      <c r="D13">
+        <v>0.02842555728533626</v>
+      </c>
+      <c r="E13">
+        <v>0.08648783712240132</v>
+      </c>
+      <c r="F13">
+        <v>-0.02605005752902758</v>
+      </c>
+      <c r="G13">
+        <v>0.04576096918974951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02009124776731251</v>
+        <v>-0.02258491647726059</v>
       </c>
       <c r="C14">
-        <v>0.04956475862621155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05202606318526914</v>
+      </c>
+      <c r="D14">
+        <v>0.02781161089714299</v>
+      </c>
+      <c r="E14">
+        <v>0.05375276098117452</v>
+      </c>
+      <c r="F14">
+        <v>-0.00066887692386147</v>
+      </c>
+      <c r="G14">
+        <v>0.07529523195212988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03257509072824988</v>
+        <v>-0.03244703019487077</v>
       </c>
       <c r="C15">
-        <v>0.06679096263592577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06467072282235606</v>
+      </c>
+      <c r="D15">
+        <v>-0.02462153545881067</v>
+      </c>
+      <c r="E15">
+        <v>0.04273146084919982</v>
+      </c>
+      <c r="F15">
+        <v>-0.01961887347817398</v>
+      </c>
+      <c r="G15">
+        <v>0.03237525142661216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05780020856273888</v>
+        <v>-0.05575589210965114</v>
       </c>
       <c r="C16">
-        <v>0.1586697992456841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1579146804738411</v>
+      </c>
+      <c r="D16">
+        <v>0.009452425036217621</v>
+      </c>
+      <c r="E16">
+        <v>0.0469048979982347</v>
+      </c>
+      <c r="F16">
+        <v>0.01911076920868952</v>
+      </c>
+      <c r="G16">
+        <v>0.1320140587924221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008584444517059534</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.003823641822915253</v>
+      </c>
+      <c r="D17">
+        <v>-0.00364408524216125</v>
+      </c>
+      <c r="E17">
+        <v>-0.01174981842007375</v>
+      </c>
+      <c r="F17">
+        <v>-0.01583665704238265</v>
+      </c>
+      <c r="G17">
+        <v>0.01038506289034599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04647083792743666</v>
+        <v>-0.05647444200125953</v>
       </c>
       <c r="C18">
-        <v>0.0546792693711678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04745136373402332</v>
+      </c>
+      <c r="D18">
+        <v>-0.03226526198636998</v>
+      </c>
+      <c r="E18">
+        <v>-0.05282016473933378</v>
+      </c>
+      <c r="F18">
+        <v>0.02418631610438893</v>
+      </c>
+      <c r="G18">
+        <v>-0.1776138939758429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05832577900655465</v>
+        <v>-0.05719940675208167</v>
       </c>
       <c r="C20">
-        <v>0.1088921747441724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1057563752464177</v>
+      </c>
+      <c r="D20">
+        <v>-0.007887409343072631</v>
+      </c>
+      <c r="E20">
+        <v>0.07009151688394555</v>
+      </c>
+      <c r="F20">
+        <v>-0.01421192006470942</v>
+      </c>
+      <c r="G20">
+        <v>0.07305205959217641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04312757630173488</v>
+        <v>-0.04487486189514168</v>
       </c>
       <c r="C21">
-        <v>0.06876861729155616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06515450370346117</v>
+      </c>
+      <c r="D21">
+        <v>0.01136434113433863</v>
+      </c>
+      <c r="E21">
+        <v>0.06700115079152785</v>
+      </c>
+      <c r="F21">
+        <v>0.02013323798594631</v>
+      </c>
+      <c r="G21">
+        <v>0.06311376480599884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04558732528584982</v>
+        <v>-0.04552308306596291</v>
       </c>
       <c r="C22">
-        <v>0.03683282038863585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03944457735560804</v>
+      </c>
+      <c r="D22">
+        <v>0.08177021598007821</v>
+      </c>
+      <c r="E22">
+        <v>-0.1646137791551709</v>
+      </c>
+      <c r="F22">
+        <v>0.09454780963935895</v>
+      </c>
+      <c r="G22">
+        <v>0.01165860553715429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04559738698199674</v>
+        <v>-0.04553185697752298</v>
       </c>
       <c r="C23">
-        <v>0.036825531131161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03943827069865893</v>
+      </c>
+      <c r="D23">
+        <v>0.08181705338142643</v>
+      </c>
+      <c r="E23">
+        <v>-0.1646774100532876</v>
+      </c>
+      <c r="F23">
+        <v>0.09454323951201905</v>
+      </c>
+      <c r="G23">
+        <v>0.01165850419178677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0653519931937448</v>
+        <v>-0.06368930973610128</v>
       </c>
       <c r="C24">
-        <v>0.1434641346150277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1401168144389903</v>
+      </c>
+      <c r="D24">
+        <v>0.008373268290245118</v>
+      </c>
+      <c r="E24">
+        <v>0.06284705065862588</v>
+      </c>
+      <c r="F24">
+        <v>0.002014925180537638</v>
+      </c>
+      <c r="G24">
+        <v>0.0850907605534152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07258702679790874</v>
+        <v>-0.06992162552964788</v>
       </c>
       <c r="C25">
-        <v>0.130100722335638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1276720593017412</v>
+      </c>
+      <c r="D25">
+        <v>0.01334144335395577</v>
+      </c>
+      <c r="E25">
+        <v>0.1018172218235872</v>
+      </c>
+      <c r="F25">
+        <v>-0.01088173585964038</v>
+      </c>
+      <c r="G25">
+        <v>0.08375960298430908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05757405975861528</v>
+        <v>-0.06108378963741625</v>
       </c>
       <c r="C26">
-        <v>0.07343573503957881</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07790205830494158</v>
+      </c>
+      <c r="D26">
+        <v>0.03457826706962273</v>
+      </c>
+      <c r="E26">
+        <v>0.07415273415388536</v>
+      </c>
+      <c r="F26">
+        <v>-0.02535319787439595</v>
+      </c>
+      <c r="G26">
+        <v>0.1204947351066003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1716648182694426</v>
+        <v>-0.1760923597087709</v>
       </c>
       <c r="C28">
-        <v>-0.2239785025075616</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2261857285789884</v>
+      </c>
+      <c r="D28">
+        <v>0.09111871811257856</v>
+      </c>
+      <c r="E28">
+        <v>0.1068824017982369</v>
+      </c>
+      <c r="F28">
+        <v>-0.06438099847320188</v>
+      </c>
+      <c r="G28">
+        <v>0.08700313975716828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02553859306121069</v>
+        <v>-0.02675014822451935</v>
       </c>
       <c r="C29">
-        <v>0.05580123456525227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05583746789508483</v>
+      </c>
+      <c r="D29">
+        <v>0.0483861985267771</v>
+      </c>
+      <c r="E29">
+        <v>0.04226377931451105</v>
+      </c>
+      <c r="F29">
+        <v>0.0004914034749642466</v>
+      </c>
+      <c r="G29">
+        <v>0.06011136872745838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02972417131074526</v>
+        <v>-0.03311581631119997</v>
       </c>
       <c r="C30">
-        <v>0.07193075350348281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07625057922865341</v>
+      </c>
+      <c r="D30">
+        <v>-0.04361100175253046</v>
+      </c>
+      <c r="E30">
+        <v>0.1224856261577855</v>
+      </c>
+      <c r="F30">
+        <v>-0.04859909952377568</v>
+      </c>
+      <c r="G30">
+        <v>0.06957672107139955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05419804838866321</v>
+        <v>-0.05317682191411761</v>
       </c>
       <c r="C31">
-        <v>0.03657727528053956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03881478980984378</v>
+      </c>
+      <c r="D31">
+        <v>0.01991415416711144</v>
+      </c>
+      <c r="E31">
+        <v>0.002598368046056923</v>
+      </c>
+      <c r="F31">
+        <v>0.0509088381518816</v>
+      </c>
+      <c r="G31">
+        <v>0.03193406384390747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04460069993583047</v>
+        <v>-0.04800550633255928</v>
       </c>
       <c r="C32">
-        <v>0.05895163405856566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05628359889916806</v>
+      </c>
+      <c r="D32">
+        <v>-0.01173194675495503</v>
+      </c>
+      <c r="E32">
+        <v>0.02614793999680681</v>
+      </c>
+      <c r="F32">
+        <v>-0.03970735716299637</v>
+      </c>
+      <c r="G32">
+        <v>0.05118692510267131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07861013199987571</v>
+        <v>-0.08246844683816534</v>
       </c>
       <c r="C33">
-        <v>0.1137723945848001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1223354481285218</v>
+      </c>
+      <c r="D33">
+        <v>0.01551729463088689</v>
+      </c>
+      <c r="E33">
+        <v>0.04559831092202368</v>
+      </c>
+      <c r="F33">
+        <v>-0.003667225779631316</v>
+      </c>
+      <c r="G33">
+        <v>0.04970172568428413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05122815174942916</v>
+        <v>-0.05045622064885914</v>
       </c>
       <c r="C34">
-        <v>0.1323437950315487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1311704424178936</v>
+      </c>
+      <c r="D34">
+        <v>-0.0147557126402596</v>
+      </c>
+      <c r="E34">
+        <v>0.04330412597780699</v>
+      </c>
+      <c r="F34">
+        <v>0.01300894482726297</v>
+      </c>
+      <c r="G34">
+        <v>0.1261112116711166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02838003046635974</v>
+        <v>-0.03042984421307313</v>
       </c>
       <c r="C35">
-        <v>0.01717953631169345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02025008575055215</v>
+      </c>
+      <c r="D35">
+        <v>0.009326757537876904</v>
+      </c>
+      <c r="E35">
+        <v>0.008169319185391414</v>
+      </c>
+      <c r="F35">
+        <v>-0.01743842234342664</v>
+      </c>
+      <c r="G35">
+        <v>0.04339824638130876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02805642303313604</v>
+        <v>-0.03023078946241239</v>
       </c>
       <c r="C36">
-        <v>0.05708376801870138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05526303326532318</v>
+      </c>
+      <c r="D36">
+        <v>-0.02608597969168992</v>
+      </c>
+      <c r="E36">
+        <v>-0.01376105391465283</v>
+      </c>
+      <c r="F36">
+        <v>0.0009185006171755338</v>
+      </c>
+      <c r="G36">
+        <v>0.09602991697102481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005921559946514047</v>
+        <v>-0.004776368018691481</v>
       </c>
       <c r="C37">
-        <v>-0.0004992786818046941</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006798173077546597</v>
+      </c>
+      <c r="D37">
+        <v>0.007838065790787819</v>
+      </c>
+      <c r="E37">
+        <v>0.01203121092249252</v>
+      </c>
+      <c r="F37">
+        <v>0.002835432005663493</v>
+      </c>
+      <c r="G37">
+        <v>7.906447349289152e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07836315724906771</v>
+        <v>-0.07368804915070985</v>
       </c>
       <c r="C39">
-        <v>0.1579755133399813</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1513614981019515</v>
+      </c>
+      <c r="D39">
+        <v>0.06809631267733028</v>
+      </c>
+      <c r="E39">
+        <v>0.09974880523106411</v>
+      </c>
+      <c r="F39">
+        <v>0.01220455955880659</v>
+      </c>
+      <c r="G39">
+        <v>0.1424313487283216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05086346012451542</v>
+        <v>-0.05319066836412046</v>
       </c>
       <c r="C40">
-        <v>0.07506627033533454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08047866383580052</v>
+      </c>
+      <c r="D40">
+        <v>0.01883839548689904</v>
+      </c>
+      <c r="E40">
+        <v>0.02204630913964</v>
+      </c>
+      <c r="F40">
+        <v>-0.0616080420466268</v>
+      </c>
+      <c r="G40">
+        <v>0.01635260996754061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03063805789988315</v>
+        <v>-0.03032070058769486</v>
       </c>
       <c r="C41">
-        <v>0.02315193952657462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02521608485479599</v>
+      </c>
+      <c r="D41">
+        <v>-0.001555409689569454</v>
+      </c>
+      <c r="E41">
+        <v>-0.01137790794560219</v>
+      </c>
+      <c r="F41">
+        <v>-0.01306029745413156</v>
+      </c>
+      <c r="G41">
+        <v>-0.002883725176027128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04430613955269214</v>
+        <v>-0.0421912045257969</v>
       </c>
       <c r="C43">
-        <v>0.04069384319627248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03907327528270017</v>
+      </c>
+      <c r="D43">
+        <v>0.03537185679908193</v>
+      </c>
+      <c r="E43">
+        <v>-0.01788513268685262</v>
+      </c>
+      <c r="F43">
+        <v>0.02492824748733967</v>
+      </c>
+      <c r="G43">
+        <v>0.03441695335581069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05447458265779834</v>
+        <v>-0.0584610187191081</v>
       </c>
       <c r="C44">
-        <v>0.0954121262074233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09779318242832351</v>
+      </c>
+      <c r="D44">
+        <v>-0.08870555722811614</v>
+      </c>
+      <c r="E44">
+        <v>0.09361733839252759</v>
+      </c>
+      <c r="F44">
+        <v>-0.02107148130104503</v>
+      </c>
+      <c r="G44">
+        <v>0.1537819551513035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0008391707798061308</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0008130030343702795</v>
+      </c>
+      <c r="D45">
+        <v>0.000595306521409447</v>
+      </c>
+      <c r="E45">
+        <v>0.004511840632719324</v>
+      </c>
+      <c r="F45">
+        <v>0.006100121429195361</v>
+      </c>
+      <c r="G45">
+        <v>-0.004865150214641707</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02891028270398063</v>
+        <v>-0.0297850249838869</v>
       </c>
       <c r="C46">
-        <v>0.04725897137952308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04477608234652098</v>
+      </c>
+      <c r="D46">
+        <v>0.05657187442102543</v>
+      </c>
+      <c r="E46">
+        <v>0.03442201837710834</v>
+      </c>
+      <c r="F46">
+        <v>0.02432166647307177</v>
+      </c>
+      <c r="G46">
+        <v>0.07316055379500661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05541908144594244</v>
+        <v>-0.05275140397448805</v>
       </c>
       <c r="C47">
-        <v>0.04771367523225927</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04666635052758142</v>
+      </c>
+      <c r="D47">
+        <v>0.03187931254063912</v>
+      </c>
+      <c r="E47">
+        <v>-0.06074146962589711</v>
+      </c>
+      <c r="F47">
+        <v>0.07080783244633763</v>
+      </c>
+      <c r="G47">
+        <v>-0.06138963903374179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04820443648073652</v>
+        <v>-0.04981040409394037</v>
       </c>
       <c r="C48">
-        <v>0.06855603508336228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06903889826635644</v>
+      </c>
+      <c r="D48">
+        <v>0.0005214082352592876</v>
+      </c>
+      <c r="E48">
+        <v>0.08124414772014558</v>
+      </c>
+      <c r="F48">
+        <v>0.02210941443890508</v>
+      </c>
+      <c r="G48">
+        <v>0.03398950861054825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1830561325352471</v>
+        <v>-0.1906162911504362</v>
       </c>
       <c r="C49">
-        <v>-0.02991849369214859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02683319675091326</v>
+      </c>
+      <c r="D49">
+        <v>-0.06683923751383374</v>
+      </c>
+      <c r="E49">
+        <v>0.04666015909604481</v>
+      </c>
+      <c r="F49">
+        <v>-0.09860531687698167</v>
+      </c>
+      <c r="G49">
+        <v>-0.03569658211394405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0536113677403441</v>
+        <v>-0.05339692553720123</v>
       </c>
       <c r="C50">
-        <v>0.03691929039617894</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03971699420349921</v>
+      </c>
+      <c r="D50">
+        <v>-0.000673956791136665</v>
+      </c>
+      <c r="E50">
+        <v>0.01287323897172261</v>
+      </c>
+      <c r="F50">
+        <v>0.05136155462761523</v>
+      </c>
+      <c r="G50">
+        <v>0.0297404060577432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1402116863786071</v>
+        <v>-0.1359051838582521</v>
       </c>
       <c r="C52">
-        <v>0.0349998789036445</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03273143795336773</v>
+      </c>
+      <c r="D52">
+        <v>-0.06616076505102404</v>
+      </c>
+      <c r="E52">
+        <v>-0.05887689876919218</v>
+      </c>
+      <c r="F52">
+        <v>0.1288182622117343</v>
+      </c>
+      <c r="G52">
+        <v>0.02650264475112948</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1674945923270054</v>
+        <v>-0.1615308624172569</v>
       </c>
       <c r="C53">
-        <v>-0.01153251756931451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01039776014403633</v>
+      </c>
+      <c r="D53">
+        <v>-0.09856032075904742</v>
+      </c>
+      <c r="E53">
+        <v>-0.07239540756410025</v>
+      </c>
+      <c r="F53">
+        <v>0.1752695323135353</v>
+      </c>
+      <c r="G53">
+        <v>-0.04375759905545412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01346361257321613</v>
+        <v>-0.01416664510477272</v>
       </c>
       <c r="C54">
-        <v>0.04095294738688448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04194631533281509</v>
+      </c>
+      <c r="D54">
+        <v>0.01554313877942488</v>
+      </c>
+      <c r="E54">
+        <v>0.03658693293304518</v>
+      </c>
+      <c r="F54">
+        <v>0.001761865838653542</v>
+      </c>
+      <c r="G54">
+        <v>0.09123880538292765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1210408605704777</v>
+        <v>-0.1197442047072688</v>
       </c>
       <c r="C55">
-        <v>0.01676333024037324</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01689657815693785</v>
+      </c>
+      <c r="D55">
+        <v>-0.04600990931717557</v>
+      </c>
+      <c r="E55">
+        <v>-0.03848914537786326</v>
+      </c>
+      <c r="F55">
+        <v>0.1987837084464099</v>
+      </c>
+      <c r="G55">
+        <v>0.03913441170518847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1804006220230848</v>
+        <v>-0.1759606604524064</v>
       </c>
       <c r="C56">
-        <v>-0.008571610900378902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01024818823970476</v>
+      </c>
+      <c r="D56">
+        <v>-0.1123259370291187</v>
+      </c>
+      <c r="E56">
+        <v>-0.09213674215894015</v>
+      </c>
+      <c r="F56">
+        <v>0.1911205099025742</v>
+      </c>
+      <c r="G56">
+        <v>-0.07472592453349203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04143172518243841</v>
+        <v>-0.04126161528684451</v>
       </c>
       <c r="C58">
-        <v>0.09661171727291011</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.107251072457661</v>
+      </c>
+      <c r="D58">
+        <v>0.03857170738782587</v>
+      </c>
+      <c r="E58">
+        <v>0.02259466308229956</v>
+      </c>
+      <c r="F58">
+        <v>0.00332156462478585</v>
+      </c>
+      <c r="G58">
+        <v>0.05751582417688948</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1812425115753124</v>
+        <v>-0.1877780187067481</v>
       </c>
       <c r="C59">
-        <v>-0.1582926684020409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1652664286487255</v>
+      </c>
+      <c r="D59">
+        <v>0.11054200876298</v>
+      </c>
+      <c r="E59">
+        <v>0.02652288767354487</v>
+      </c>
+      <c r="F59">
+        <v>-0.03942858746991481</v>
+      </c>
+      <c r="G59">
+        <v>0.1011090282590213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2073842862227463</v>
+        <v>-0.2059034763151786</v>
       </c>
       <c r="C60">
-        <v>0.001998579437484813</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.005585740689698626</v>
+      </c>
+      <c r="D60">
+        <v>-0.07099637299059285</v>
+      </c>
+      <c r="E60">
+        <v>-0.06495424693065704</v>
+      </c>
+      <c r="F60">
+        <v>-0.03576301233640521</v>
+      </c>
+      <c r="G60">
+        <v>-0.1638462201067502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0607523245747936</v>
+        <v>-0.0590095565942839</v>
       </c>
       <c r="C61">
-        <v>0.1338350854955419</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1304097377035258</v>
+      </c>
+      <c r="D61">
+        <v>0.02889672304561317</v>
+      </c>
+      <c r="E61">
+        <v>0.07461553391526683</v>
+      </c>
+      <c r="F61">
+        <v>-0.01942645021936404</v>
+      </c>
+      <c r="G61">
+        <v>0.1079615027876969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.170714219520348</v>
+        <v>-0.1671218291270724</v>
       </c>
       <c r="C62">
-        <v>-0.00523106615286885</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.006300193469340535</v>
+      </c>
+      <c r="D62">
+        <v>-0.08366528519555426</v>
+      </c>
+      <c r="E62">
+        <v>-0.08650665205407755</v>
+      </c>
+      <c r="F62">
+        <v>0.169166565555624</v>
+      </c>
+      <c r="G62">
+        <v>-0.03651462072183086</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04163017958993477</v>
+        <v>-0.04392395417878405</v>
       </c>
       <c r="C63">
-        <v>0.08010104998827589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.083570497540547</v>
+      </c>
+      <c r="D63">
+        <v>0.01858360271019279</v>
+      </c>
+      <c r="E63">
+        <v>0.02189502210909098</v>
+      </c>
+      <c r="F63">
+        <v>-0.01824095430497292</v>
+      </c>
+      <c r="G63">
+        <v>0.1001262169426034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1142914141931425</v>
+        <v>-0.1118581046266561</v>
       </c>
       <c r="C64">
-        <v>0.06259815774938977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06439977336276337</v>
+      </c>
+      <c r="D64">
+        <v>-0.05622476966805354</v>
+      </c>
+      <c r="E64">
+        <v>-0.001215682803007026</v>
+      </c>
+      <c r="F64">
+        <v>-0.0001526952766231867</v>
+      </c>
+      <c r="G64">
+        <v>-0.01098195294943306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1588417839608771</v>
+        <v>-0.1619461067765055</v>
       </c>
       <c r="C65">
-        <v>-0.05410248383100881</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04331794995259273</v>
+      </c>
+      <c r="D65">
+        <v>-0.02871670241625587</v>
+      </c>
+      <c r="E65">
+        <v>0.01828226015592507</v>
+      </c>
+      <c r="F65">
+        <v>0.06212207990358875</v>
+      </c>
+      <c r="G65">
+        <v>-0.1021276577123343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09505171153770837</v>
+        <v>-0.09098957692392906</v>
       </c>
       <c r="C66">
-        <v>0.1319633560972996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1299475436042356</v>
+      </c>
+      <c r="D66">
+        <v>0.0419254176885908</v>
+      </c>
+      <c r="E66">
+        <v>0.07539629958252861</v>
+      </c>
+      <c r="F66">
+        <v>-0.01453449564566991</v>
+      </c>
+      <c r="G66">
+        <v>0.1356387534447872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05097262641747876</v>
+        <v>-0.04430618067709068</v>
       </c>
       <c r="C67">
-        <v>0.07939185159008579</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.0729588377799783</v>
+      </c>
+      <c r="D67">
+        <v>0.03828562951850876</v>
+      </c>
+      <c r="E67">
+        <v>-0.09158142124318706</v>
+      </c>
+      <c r="F67">
+        <v>0.02694839055259983</v>
+      </c>
+      <c r="G67">
+        <v>0.02372255546650176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1468498020686866</v>
+        <v>-0.1472130826123631</v>
       </c>
       <c r="C68">
-        <v>-0.2529574773428858</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2478877721456774</v>
+      </c>
+      <c r="D68">
+        <v>0.06801977961988515</v>
+      </c>
+      <c r="E68">
+        <v>0.160529841171469</v>
+      </c>
+      <c r="F68">
+        <v>-0.03918519356616216</v>
+      </c>
+      <c r="G68">
+        <v>0.0212125516265304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03891874229947253</v>
+        <v>-0.03667702263581208</v>
       </c>
       <c r="C69">
-        <v>0.01742112544552209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02094521090872938</v>
+      </c>
+      <c r="D69">
+        <v>-0.01012042531132846</v>
+      </c>
+      <c r="E69">
+        <v>-0.08526440929025599</v>
+      </c>
+      <c r="F69">
+        <v>0.02768869147861017</v>
+      </c>
+      <c r="G69">
+        <v>0.02567495395063011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.08042267337716767</v>
+        <v>-0.07822132418819501</v>
       </c>
       <c r="C70">
-        <v>0.09024786077048377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09411446439887049</v>
+      </c>
+      <c r="D70">
+        <v>0.05575797540552983</v>
+      </c>
+      <c r="E70">
+        <v>0.02908578761170867</v>
+      </c>
+      <c r="F70">
+        <v>-0.06963857652272418</v>
+      </c>
+      <c r="G70">
+        <v>-0.004550767087461694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1689192327644226</v>
+        <v>-0.1712485512198684</v>
       </c>
       <c r="C71">
-        <v>-0.2544974943358035</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2519633501091987</v>
+      </c>
+      <c r="D71">
+        <v>0.07998033972850703</v>
+      </c>
+      <c r="E71">
+        <v>0.1577904725669812</v>
+      </c>
+      <c r="F71">
+        <v>-0.05411520535651638</v>
+      </c>
+      <c r="G71">
+        <v>0.006893330395842633</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1433922441440155</v>
+        <v>-0.1483507544991983</v>
       </c>
       <c r="C72">
-        <v>0.00898247963666831</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.007745885403586907</v>
+      </c>
+      <c r="D72">
+        <v>-0.02059252553832953</v>
+      </c>
+      <c r="E72">
+        <v>-0.06728531080863145</v>
+      </c>
+      <c r="F72">
+        <v>0.09446631376622178</v>
+      </c>
+      <c r="G72">
+        <v>0.0399767988026971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1894973858637974</v>
+        <v>-0.1988826120129845</v>
       </c>
       <c r="C73">
-        <v>0.01710590634801365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.0196982376840172</v>
+      </c>
+      <c r="D73">
+        <v>-0.06694960747214528</v>
+      </c>
+      <c r="E73">
+        <v>-0.08773965074069677</v>
+      </c>
+      <c r="F73">
+        <v>-0.003024863276877142</v>
+      </c>
+      <c r="G73">
+        <v>0.01386474059720672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08413151728291861</v>
+        <v>-0.08409104712236266</v>
       </c>
       <c r="C74">
-        <v>0.0048183183442026</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0107491457430057</v>
+      </c>
+      <c r="D74">
+        <v>-0.09599569345825058</v>
+      </c>
+      <c r="E74">
+        <v>-0.05657005903001305</v>
+      </c>
+      <c r="F74">
+        <v>0.06753701243170496</v>
+      </c>
+      <c r="G74">
+        <v>0.005355356757873088</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1203979246422142</v>
+        <v>-0.1131185344882287</v>
       </c>
       <c r="C75">
-        <v>0.02616249083200671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02700411329916973</v>
+      </c>
+      <c r="D75">
+        <v>-0.04023453210748897</v>
+      </c>
+      <c r="E75">
+        <v>-0.1021497277929155</v>
+      </c>
+      <c r="F75">
+        <v>0.1640095594881631</v>
+      </c>
+      <c r="G75">
+        <v>-0.04491640309444584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07832911316871749</v>
+        <v>-0.0852497611322004</v>
       </c>
       <c r="C77">
-        <v>0.1220184194013311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1285566986827448</v>
+      </c>
+      <c r="D77">
+        <v>0.002736676182090988</v>
+      </c>
+      <c r="E77">
+        <v>0.1527753231051491</v>
+      </c>
+      <c r="F77">
+        <v>-0.007117516782773971</v>
+      </c>
+      <c r="G77">
+        <v>-0.02589583878408394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07461859973414239</v>
+        <v>-0.08067255729267765</v>
       </c>
       <c r="C78">
-        <v>0.1294025918120286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.131861213140659</v>
+      </c>
+      <c r="D78">
+        <v>0.07618029051394876</v>
+      </c>
+      <c r="E78">
+        <v>0.04645309761276811</v>
+      </c>
+      <c r="F78">
+        <v>0.06128958575947818</v>
+      </c>
+      <c r="G78">
+        <v>-0.099273751395836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1691631134075482</v>
+        <v>-0.1647400391376443</v>
       </c>
       <c r="C79">
-        <v>0.02014235456529992</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0194755195650058</v>
+      </c>
+      <c r="D79">
+        <v>-0.02869685220089586</v>
+      </c>
+      <c r="E79">
+        <v>-0.06892142266743183</v>
+      </c>
+      <c r="F79">
+        <v>0.1451729154386562</v>
+      </c>
+      <c r="G79">
+        <v>-0.04131117620150171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0782215938669408</v>
+        <v>-0.07396837996606268</v>
       </c>
       <c r="C80">
-        <v>0.0822151694469052</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07818197532373126</v>
+      </c>
+      <c r="D80">
+        <v>0.04655629214767954</v>
+      </c>
+      <c r="E80">
+        <v>0.001180543558031333</v>
+      </c>
+      <c r="F80">
+        <v>-0.1057753061739979</v>
+      </c>
+      <c r="G80">
+        <v>0.1150941994481625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1135413086751071</v>
+        <v>-0.1068674580619828</v>
       </c>
       <c r="C81">
-        <v>-0.00881216359437877</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.008350360020713207</v>
+      </c>
+      <c r="D81">
+        <v>-0.02785372341656611</v>
+      </c>
+      <c r="E81">
+        <v>-0.1419945733801243</v>
+      </c>
+      <c r="F81">
+        <v>0.1232898367257061</v>
+      </c>
+      <c r="G81">
+        <v>-0.02299135414869084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1626800759083062</v>
+        <v>-0.1586038630821303</v>
       </c>
       <c r="C82">
-        <v>-0.01546076920148439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01318824508236565</v>
+      </c>
+      <c r="D82">
+        <v>-0.1371626172765794</v>
+      </c>
+      <c r="E82">
+        <v>-0.0776507007970578</v>
+      </c>
+      <c r="F82">
+        <v>0.1355746351692047</v>
+      </c>
+      <c r="G82">
+        <v>-0.04973681290741629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05410068643436646</v>
+        <v>-0.050907633153223</v>
       </c>
       <c r="C83">
-        <v>0.06578363085208695</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06009324726583473</v>
+      </c>
+      <c r="D83">
+        <v>0.02271515432349207</v>
+      </c>
+      <c r="E83">
+        <v>0.002340895049878646</v>
+      </c>
+      <c r="F83">
+        <v>-0.02192856644773099</v>
+      </c>
+      <c r="G83">
+        <v>0.02604506886806988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04685864658307878</v>
+        <v>-0.04583420353979308</v>
       </c>
       <c r="C84">
-        <v>0.07315155893903218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07133705028141454</v>
+      </c>
+      <c r="D84">
+        <v>0.01316200723024954</v>
+      </c>
+      <c r="E84">
+        <v>0.0003158027837429097</v>
+      </c>
+      <c r="F84">
+        <v>0.0338817710121711</v>
+      </c>
+      <c r="G84">
+        <v>0.07392725744756802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1399725006914653</v>
+        <v>-0.1354495104351708</v>
       </c>
       <c r="C85">
-        <v>0.007715890689359536</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.00723005803195403</v>
+      </c>
+      <c r="D85">
+        <v>-0.06869158524135108</v>
+      </c>
+      <c r="E85">
+        <v>-0.03936000425923535</v>
+      </c>
+      <c r="F85">
+        <v>0.1590275597082996</v>
+      </c>
+      <c r="G85">
+        <v>-0.004600373741586456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08394822152787887</v>
+        <v>-0.08396688880044378</v>
       </c>
       <c r="C86">
-        <v>0.1422559624243647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1494977078352007</v>
+      </c>
+      <c r="D86">
+        <v>0.8452464466696595</v>
+      </c>
+      <c r="E86">
+        <v>-0.2852288957971241</v>
+      </c>
+      <c r="F86">
+        <v>-0.005411807479671801</v>
+      </c>
+      <c r="G86">
+        <v>-0.1278883423684474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08837463330231268</v>
+        <v>-0.08383826740861486</v>
       </c>
       <c r="C87">
-        <v>0.1049730798371496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1009567607814265</v>
+      </c>
+      <c r="D87">
+        <v>-0.05360276008333568</v>
+      </c>
+      <c r="E87">
+        <v>0.1884891991368545</v>
+      </c>
+      <c r="F87">
+        <v>-0.1702950677287166</v>
+      </c>
+      <c r="G87">
+        <v>0.06449727580233705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05931887649811758</v>
+        <v>-0.058802285236509</v>
       </c>
       <c r="C88">
-        <v>0.06451293252822615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06517962535324211</v>
+      </c>
+      <c r="D88">
+        <v>-0.02245711953005662</v>
+      </c>
+      <c r="E88">
+        <v>-0.01735182089056816</v>
+      </c>
+      <c r="F88">
+        <v>0.03526287150236486</v>
+      </c>
+      <c r="G88">
+        <v>-0.03347727624167834</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1540651342227116</v>
+        <v>-0.1526293083642474</v>
       </c>
       <c r="C89">
-        <v>-0.2012957882754687</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2071357772988936</v>
+      </c>
+      <c r="D89">
+        <v>0.03871088527761634</v>
+      </c>
+      <c r="E89">
+        <v>0.09744270951487685</v>
+      </c>
+      <c r="F89">
+        <v>-0.05067748971022257</v>
+      </c>
+      <c r="G89">
+        <v>-4.544357951645936e-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1868640329762533</v>
+        <v>-0.1885238123293483</v>
       </c>
       <c r="C90">
-        <v>-0.2358555932255799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2356608139798099</v>
+      </c>
+      <c r="D90">
+        <v>0.09535662746379868</v>
+      </c>
+      <c r="E90">
+        <v>0.1667751587343201</v>
+      </c>
+      <c r="F90">
+        <v>-0.0999045059869651</v>
+      </c>
+      <c r="G90">
+        <v>-0.0674738227001965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1274793423962662</v>
+        <v>-0.1210132022964556</v>
       </c>
       <c r="C91">
-        <v>-0.0220395899639126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02073356908266243</v>
+      </c>
+      <c r="D91">
+        <v>-0.02539922726930996</v>
+      </c>
+      <c r="E91">
+        <v>-0.1757415781571037</v>
+      </c>
+      <c r="F91">
+        <v>0.1357919021967054</v>
+      </c>
+      <c r="G91">
+        <v>0.01893679646485382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1731762653642053</v>
+        <v>-0.1744526231989315</v>
       </c>
       <c r="C92">
-        <v>-0.2580724027201655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2688844016896598</v>
+      </c>
+      <c r="D92">
+        <v>0.1303944479998169</v>
+      </c>
+      <c r="E92">
+        <v>0.1659531868107891</v>
+      </c>
+      <c r="F92">
+        <v>-0.03345479787583897</v>
+      </c>
+      <c r="G92">
+        <v>0.08964888775982216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1801243721061472</v>
+        <v>-0.1865708249886353</v>
       </c>
       <c r="C93">
-        <v>-0.2215577379378878</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2229138461103068</v>
+      </c>
+      <c r="D93">
+        <v>0.07391093693376574</v>
+      </c>
+      <c r="E93">
+        <v>0.1082381983902417</v>
+      </c>
+      <c r="F93">
+        <v>-0.003684792854859275</v>
+      </c>
+      <c r="G93">
+        <v>0.01249273525019562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1188426996392929</v>
+        <v>-0.1139074600431512</v>
       </c>
       <c r="C94">
-        <v>0.03416247295382092</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03376696084232696</v>
+      </c>
+      <c r="D94">
+        <v>-0.03299064556126918</v>
+      </c>
+      <c r="E94">
+        <v>-0.0887317842634138</v>
+      </c>
+      <c r="F94">
+        <v>0.1497569268619797</v>
+      </c>
+      <c r="G94">
+        <v>-0.001663544081441503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1194282511735809</v>
+        <v>-0.1183656085704945</v>
       </c>
       <c r="C95">
-        <v>0.1068552061725525</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1177968628813252</v>
+      </c>
+      <c r="D95">
+        <v>0.05487900530657169</v>
+      </c>
+      <c r="E95">
+        <v>0.06455842831294435</v>
+      </c>
+      <c r="F95">
+        <v>-0.007838241937929724</v>
+      </c>
+      <c r="G95">
+        <v>0.09911783540145397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1168032692927541</v>
+        <v>-0.1149760847683474</v>
       </c>
       <c r="C96">
-        <v>0.1232873417082901</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1263190908252479</v>
+      </c>
+      <c r="D96">
+        <v>-0.03314971337432331</v>
+      </c>
+      <c r="E96">
+        <v>0.07047665796503275</v>
+      </c>
+      <c r="F96">
+        <v>0.03340841246678368</v>
+      </c>
+      <c r="G96">
+        <v>-0.06459467555524125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2027354557537766</v>
+        <v>-0.2070556016321868</v>
       </c>
       <c r="C97">
-        <v>0.004567001017251063</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.001535628457528705</v>
+      </c>
+      <c r="D97">
+        <v>-0.1952902913113132</v>
+      </c>
+      <c r="E97">
+        <v>-0.5607515726850948</v>
+      </c>
+      <c r="F97">
+        <v>-0.6507314879929703</v>
+      </c>
+      <c r="G97">
+        <v>0.2266040905328088</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1972598312469585</v>
+        <v>-0.2043173003029824</v>
       </c>
       <c r="C98">
-        <v>0.01953029586830202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02199602831049605</v>
+      </c>
+      <c r="D98">
+        <v>-0.03821996824400899</v>
+      </c>
+      <c r="E98">
+        <v>0.002323458267350222</v>
+      </c>
+      <c r="F98">
+        <v>-0.163615879916984</v>
+      </c>
+      <c r="G98">
+        <v>-0.2778761071132782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05028918810396672</v>
+        <v>-0.05021250498288322</v>
       </c>
       <c r="C99">
-        <v>0.05798246212934476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.0577413562245263</v>
+      </c>
+      <c r="D99">
+        <v>0.001761140608809727</v>
+      </c>
+      <c r="E99">
+        <v>0.03433377462634031</v>
+      </c>
+      <c r="F99">
+        <v>-0.01348458418113345</v>
+      </c>
+      <c r="G99">
+        <v>0.03053444041203008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1057926285771524</v>
+        <v>-0.1016980261771825</v>
       </c>
       <c r="C100">
-        <v>0.298896067951368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2871920633673819</v>
+      </c>
+      <c r="D100">
+        <v>-0.048382528614073</v>
+      </c>
+      <c r="E100">
+        <v>0.2002881176657761</v>
+      </c>
+      <c r="F100">
+        <v>-0.2997514041866708</v>
+      </c>
+      <c r="G100">
+        <v>-0.6407560838736236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02550796726827548</v>
+        <v>-0.02672682343720951</v>
       </c>
       <c r="C101">
-        <v>0.05517237087621124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05518399209852247</v>
+      </c>
+      <c r="D101">
+        <v>0.04774103853545635</v>
+      </c>
+      <c r="E101">
+        <v>0.03972424753587141</v>
+      </c>
+      <c r="F101">
+        <v>0.001677740871094506</v>
+      </c>
+      <c r="G101">
+        <v>0.05569191421076779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
